--- a/data/long_dif/P23_2-Urba-long_dif.xlsx
+++ b/data/long_dif/P23_2-Urba-long_dif.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,6 +523,9 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -531,18 +541,21 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +572,37 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
         </is>
       </c>
     </row>
@@ -587,6 +615,9 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -596,37 +627,52 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>34,85%</t>
+          <t>35,27%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>28,35%</t>
+          <t>28,2%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>29,38%</t>
+          <t>23,78%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>31,36%</t>
+          <t>29,08%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>31,98%</t>
+          <t>31,22%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>29,94%</t>
+          <t>27,61%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>32,02%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>29,8%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>25,79%</t>
         </is>
       </c>
     </row>
@@ -639,32 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>29,49; 40,28</t>
+          <t>29,77; 41,09</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>23,73; 33,2</t>
+          <t>23,71; 32,81</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>25,2; 33,6</t>
+          <t>18,25; 29,15</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>28,02; 35,63</t>
+          <t>24,78; 32,95</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>28,52; 35,71</t>
+          <t>27,41; 34,86</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>26,78; 33,05</t>
+          <t>23,19; 31,93</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>28,75; 35,95</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>26,91; 32,86</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>22,39; 29,48</t>
         </is>
       </c>
     </row>
@@ -672,37 +733,52 @@
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>39,68%</t>
+          <t>39,07%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>46,33%</t>
+          <t>46,5%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>39,11%</t>
+          <t>42,38%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>41,4%</t>
+          <t>38,59%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>39,38%</t>
+          <t>41,2%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>43,72%</t>
+          <t>36,46%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>38,82%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>43,69%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>39,27%</t>
         </is>
       </c>
     </row>
@@ -715,32 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>34,55; 45,67</t>
+          <t>33,77; 47,23</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>41,25; 53,41</t>
+          <t>41,65; 52,89</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>34,6; 43,45</t>
+          <t>36,04; 52,81</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>37,38; 45,6</t>
+          <t>34,13; 42,95</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>36,02; 43,48</t>
+          <t>37,36; 45,25</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>40,58; 47,3</t>
+          <t>31,42; 41,12</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>35,33; 42,77</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>40,32; 47,47</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>35,44; 45,02</t>
         </is>
       </c>
     </row>
@@ -748,37 +839,52 @@
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>25,47%</t>
+          <t>25,65%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>25,33%</t>
+          <t>25,3%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>31,51%</t>
+          <t>33,84%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>27,25%</t>
+          <t>32,32%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>28,64%</t>
+          <t>27,58%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>26,34%</t>
+          <t>35,94%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>29,16%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>26,5%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>34,94%</t>
         </is>
       </c>
     </row>
@@ -791,74 +897,100 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>20,72; 31,21</t>
+          <t>20,54; 31,57</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>20,75; 30,22</t>
+          <t>21,26; 30,47</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>27,52; 35,78</t>
+          <t>26,58; 39,8</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>24,04; 30,93</t>
+          <t>27,82; 36,5</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>25,52; 32,18</t>
+          <t>23,55; 31,09</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>23,6; 29,45</t>
+          <t>30,87; 40,98</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>25,81; 32,81</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>23,48; 29,56</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>30,56; 38,88</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Intermedio</t>
-        </is>
-      </c>
+      <c r="A10" s="1" t="n"/>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>36,39%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>29,53%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>28,36%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>32,85%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>32,26%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>31,22%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -871,70 +1003,104 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>29,7; 46,07</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>24,31; 35,37</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>23,28; 33,71</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>28,33; 37,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>27,95; 37,04</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>27,75; 34,96</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="n"/>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>36,09%</t>
+          <t>34,65%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>44,75%</t>
+          <t>29,81%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>39,07%</t>
+          <t>19,79%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>42,97%</t>
+          <t>29,57%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>37,62%</t>
+          <t>32,68%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>43,84%</t>
+          <t>24,53%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>32,04%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>31,27%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>22,15%</t>
         </is>
       </c>
     </row>
@@ -947,32 +1113,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>29,91; 43,05</t>
+          <t>28,4; 42,83</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>38,88; 49,95</t>
+          <t>24,5; 35,96</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>33,99; 45,21</t>
+          <t>15,04; 25,56</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>38,3; 48,16</t>
+          <t>25,14; 35,42</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>33,68; 41,64</t>
+          <t>28,2; 37,25</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>40,01; 47,42</t>
+          <t>20,08; 29,32</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>27,96; 36,96</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>28,12; 35,3</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>18,79; 26,09</t>
         </is>
       </c>
     </row>
@@ -980,37 +1161,52 @@
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>27,52%</t>
+          <t>37,3%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>25,72%</t>
+          <t>44,74%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>32,57%</t>
+          <t>44,74%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>24,19%</t>
+          <t>38,53%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>30,11%</t>
+          <t>42,36%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>24,94%</t>
+          <t>37,72%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>37,93%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>43,53%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>41,24%</t>
         </is>
       </c>
     </row>
@@ -1023,74 +1219,100 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>21,56; 33,52</t>
+          <t>30,91; 43,34</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>21,38; 31,45</t>
+          <t>38,7; 50,66</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>27,41; 37,92</t>
+          <t>38,04; 52,66</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>20,25; 28,9</t>
+          <t>33,72; 43,64</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>26,27; 34,5</t>
+          <t>38,21; 47,26</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>21,76; 28,13</t>
+          <t>31,67; 43,1</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>33,81; 41,83</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>39,72; 47,16</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>36,87; 46,17</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A16" s="1" t="n"/>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>36,99%</t>
+          <t>28,05%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>31,65%</t>
+          <t>25,45%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>30,65%</t>
+          <t>35,47%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>29,61%</t>
+          <t>31,9%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>33,89%</t>
+          <t>24,96%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>30,63%</t>
+          <t>37,75%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>30,03%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>25,2%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>36,61%</t>
         </is>
       </c>
     </row>
@@ -1103,32 +1325,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>25,2; 48,3</t>
+          <t>22,69; 34,03</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>23,13; 42,36</t>
+          <t>20,92; 31,2</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>22,02; 40,38</t>
+          <t>29,72; 42,27</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>21,3; 38,09</t>
+          <t>27,34; 36,92</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>26,55; 42,38</t>
+          <t>21,1; 29,7</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>24,0; 38,11</t>
+          <t>32,51; 44,29</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>26,61; 33,98</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>21,93; 28,77</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>32,3; 41,46</t>
         </is>
       </c>
     </row>
@@ -1136,37 +1373,52 @@
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>30,92%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>38,64%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>33,92%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>42,89%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>32,39%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>40,77%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1179,70 +1431,104 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>19,89; 41,87</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>28,57; 48,91</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>24,09; 44,88</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>33,67; 51,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>24,43; 40,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>34,02; 48,11</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="n"/>
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>Más diferencia negativa</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>32,09%</t>
+          <t>35,04%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>29,71%</t>
+          <t>31,55%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>35,44%</t>
+          <t>26,32%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>27,51%</t>
+          <t>31,43%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>33,72%</t>
+          <t>28,93%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>28,61%</t>
+          <t>29,86%</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>33,29%</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>30,24%</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>28,09%</t>
         </is>
       </c>
     </row>
@@ -1255,74 +1541,100 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>21,51; 47,7</t>
+          <t>24,66; 48,13</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>20,48; 42,23</t>
+          <t>21,84; 41,84</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>26,22; 47,08</t>
+          <t>15,15; 42,68</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>20,05; 36,22</t>
+          <t>22,8; 42,07</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>26,16; 42,54</t>
+          <t>21,07; 37,83</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>22,7; 36,53</t>
+          <t>20,88; 41,57</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>26,31; 41,45</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>24,37; 37,07</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>20,93; 37,74</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="A22" s="1" t="n"/>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>Más</t>
+          <t>Igual diferencia Cero</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr">
         <is>
-          <t>35,72%</t>
+          <t>30,8%</t>
         </is>
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>29,21%</t>
+          <t>39,26%</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>29,13%</t>
+          <t>31,88%</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>31,72%</t>
+          <t>32,61%</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>32,32%</t>
+          <t>43,25%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>30,51%</t>
+          <t>39,25%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>31,68%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>41,26%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>35,57%</t>
         </is>
       </c>
     </row>
@@ -1335,32 +1647,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>31,74; 40,49</t>
+          <t>20,21; 43,22</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>25,74; 32,7</t>
+          <t>28,16; 49,43</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>25,96; 32,24</t>
+          <t>17,18; 56,12</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>29,02; 34,75</t>
+          <t>23,55; 42,93</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>29,69; 35,3</t>
+          <t>33,2; 52,02</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>28,54; 32,71</t>
+          <t>29,43; 50,83</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>24,44; 39,08</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>33,77; 48,21</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>26,79; 48,92</t>
         </is>
       </c>
     </row>
@@ -1368,37 +1695,52 @@
       <c r="A24" s="1" t="n"/>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>Igual</t>
+          <t>Menos Diferencia Positiva</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>37,17%</t>
+          <t>34,15%</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>44,76%</t>
+          <t>29,19%</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>38,51%</t>
+          <t>41,8%</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>42,16%</t>
+          <t>35,96%</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>37,86%</t>
+          <t>27,81%</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>43,42%</t>
+          <t>30,89%</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>35,03%</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>28,5%</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>36,34%</t>
         </is>
       </c>
     </row>
@@ -1411,32 +1753,47 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>33,3; 41,58</t>
+          <t>22,99; 52,98</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>40,97; 48,7</t>
+          <t>20,57; 42,52</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>35,32; 42,04</t>
+          <t>26,28; 57,41</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>39,11; 44,9</t>
+          <t>26,63; 46,73</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>35,44; 40,49</t>
+          <t>20,81; 37,19</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>41,15; 46,04</t>
+          <t>20,87; 41,89</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>27,48; 44,49</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>22,29; 37,12</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>26,94; 45,48</t>
         </is>
       </c>
     </row>
@@ -1444,37 +1801,52 @@
       <c r="A26" s="1" t="n"/>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>Menos</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>27,11%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>26,02%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>32,36%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>26,11%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>29,82%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>26,07%</t>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
         </is>
       </c>
     </row>
@@ -1487,45 +1859,495 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
-          <t>23,64; 31,16</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>22,68; 29,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>29,33; 35,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>23,69; 28,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>27,4; 32,36</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>23,96; 28,19</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>Más diferencia negativa</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>35,0%</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>29,25%</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>22,49%</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>29,54%</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>31,51%</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>26,7%</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>32,18%</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>30,42%</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>24,64%</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>30,86; 39,32</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>25,94; 32,74</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>18,86; 25,95</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>26,38; 32,71</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>28,78; 34,34</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>23,47; 29,67</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>29,59; 34,86</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>28,32; 32,6</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>22,27; 27,19</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>Igual diferencia Cero</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>37,34%</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>44,92%</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>42,03%</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>37,9%</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>41,87%</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>37,27%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>37,63%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>43,34%</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>39,6%</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n"/>
+      <c r="B31" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C31" s="2" t="inlineStr">
+        <is>
+          <t>33,47; 41,7</t>
+        </is>
+      </c>
+      <c r="D31" s="2" t="inlineStr">
+        <is>
+          <t>41,11; 48,62</t>
+        </is>
+      </c>
+      <c r="E31" s="2" t="inlineStr">
+        <is>
+          <t>37,27; 47,89</t>
+        </is>
+      </c>
+      <c r="F31" s="2" t="inlineStr">
+        <is>
+          <t>34,43; 41,12</t>
+        </is>
+      </c>
+      <c r="G31" s="2" t="inlineStr">
+        <is>
+          <t>39,09; 44,72</t>
+        </is>
+      </c>
+      <c r="H31" s="2" t="inlineStr">
+        <is>
+          <t>33,98; 40,73</t>
+        </is>
+      </c>
+      <c r="I31" s="2" t="inlineStr">
+        <is>
+          <t>35,27; 40,21</t>
+        </is>
+      </c>
+      <c r="J31" s="2" t="inlineStr">
+        <is>
+          <t>40,95; 45,66</t>
+        </is>
+      </c>
+      <c r="K31" s="2" t="inlineStr">
+        <is>
+          <t>36,36; 42,77</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n"/>
+      <c r="B32" s="3" t="inlineStr">
+        <is>
+          <t>Menos Diferencia Positiva</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>27,66%</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>25,83%</t>
+        </is>
+      </c>
+      <c r="E32" s="2" t="inlineStr">
+        <is>
+          <t>35,47%</t>
+        </is>
+      </c>
+      <c r="F32" s="2" t="inlineStr">
+        <is>
+          <t>32,57%</t>
+        </is>
+      </c>
+      <c r="G32" s="2" t="inlineStr">
+        <is>
+          <t>26,61%</t>
+        </is>
+      </c>
+      <c r="H32" s="2" t="inlineStr">
+        <is>
+          <t>36,03%</t>
+        </is>
+      </c>
+      <c r="I32" s="2" t="inlineStr">
+        <is>
+          <t>30,19%</t>
+        </is>
+      </c>
+      <c r="J32" s="2" t="inlineStr">
+        <is>
+          <t>26,24%</t>
+        </is>
+      </c>
+      <c r="K32" s="2" t="inlineStr">
+        <is>
+          <t>35,76%</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n"/>
+      <c r="B33" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C33" s="2" t="inlineStr">
+        <is>
+          <t>23,76; 32,1</t>
+        </is>
+      </c>
+      <c r="D33" s="2" t="inlineStr">
+        <is>
+          <t>22,83; 29,63</t>
+        </is>
+      </c>
+      <c r="E33" s="2" t="inlineStr">
+        <is>
+          <t>31,04; 40,01</t>
+        </is>
+      </c>
+      <c r="F33" s="2" t="inlineStr">
+        <is>
+          <t>29,36; 35,41</t>
+        </is>
+      </c>
+      <c r="G33" s="2" t="inlineStr">
+        <is>
+          <t>24,1; 29,33</t>
+        </is>
+      </c>
+      <c r="H33" s="2" t="inlineStr">
+        <is>
+          <t>32,68; 39,82</t>
+        </is>
+      </c>
+      <c r="I33" s="2" t="inlineStr">
+        <is>
+          <t>27,73; 32,71</t>
+        </is>
+      </c>
+      <c r="J33" s="2" t="inlineStr">
+        <is>
+          <t>24,22; 28,65</t>
+        </is>
+      </c>
+      <c r="K33" s="2" t="inlineStr">
+        <is>
+          <t>33,14; 38,97</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n"/>
+      <c r="B34" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="D34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="E34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="F34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="G34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="J34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="K34" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n"/>
+      <c r="B35" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K35" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A22:A27"/>
-    <mergeCell ref="A4:A9"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A16:A21"/>
-    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="C1:E1"/>
+    <mergeCell ref="A4:A11"/>
+    <mergeCell ref="A12:A19"/>
+    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="A20:A27"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A28:A35"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
